--- a/Assets/Spreadsheet/Scripts/Loc3.xlsx
+++ b/Assets/Spreadsheet/Scripts/Loc3.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Loc3" sheetId="1" r:id="Rba5e760f3a71428c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Loc3" sheetId="1" r:id="R5665bde8b57e4453"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Assets/Spreadsheet/Scripts/Loc3.xlsx
+++ b/Assets/Spreadsheet/Scripts/Loc3.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Loc3" sheetId="1" r:id="R5665bde8b57e4453"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Loc3" sheetId="1" r:id="R576c221d6e5e4bd4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Assets/Spreadsheet/Scripts/Loc3.xlsx
+++ b/Assets/Spreadsheet/Scripts/Loc3.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Loc3" sheetId="1" r:id="R576c221d6e5e4bd4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Loc3" sheetId="1" r:id="R5b680e4da1174e2d"/>
   </x:sheets>
 </x:workbook>
 </file>
